--- a/biology/Zoologie/Hirondelle_fardée/Hirondelle_fardée.xlsx
+++ b/biology/Zoologie/Hirondelle_fardée/Hirondelle_fardée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_fard%C3%A9e</t>
+          <t>Hirondelle_fardée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopochelidon fucata
 L'Hirondelle fardée (Alopochelidon fucata) est une espèce de passereau de la famille des Hirundinidae, seule espèce du genre Alopochelidon, souvent classée dans le genre Stelgidopteryx. Elle est monotypique (non subdivisée en sous-espèces).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_fard%C3%A9e</t>
+          <t>Hirondelle_fardée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur le Venezuela, la Colombie, l'Équateur, le Pérou, la Bolivie, le Paraguay, le Brésil, l'Uruguay et l'Argentine.
 </t>
